--- a/tbg/Assets/Excel/config/IPlayerHasCharacters.xlsx
+++ b/tbg/Assets/Excel/config/IPlayerHasCharacters.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>playerId</t>
   </si>
@@ -53,6 +53,22 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -490,8 +506,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -513,8 +532,11 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,16 +547,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tbg/Assets/Excel/config/IPlayerHasCharacters.xlsx
+++ b/tbg/Assets/Excel/config/IPlayerHasCharacters.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>playerId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>amount</t>
   </si>
@@ -69,6 +66,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,87 +484,90 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
